--- a/medicine/Enfance/Ne_touchez_pas_aux_pur-sang/Ne_touchez_pas_aux_pur-sang.xlsx
+++ b/medicine/Enfance/Ne_touchez_pas_aux_pur-sang/Ne_touchez_pas_aux_pur-sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ne touchez pas aux pur-sang (titre en italien : Banditi e Purosangue) est un roman d'Edward Jones de la série « Le Trio de la Tamise », paru en 1973 en Italie et publié en France dans la Bibliothèque verte en 1983 (avec une traduction de Josette Gontier et des illustrations de François Dermaut).
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">M. Anderson, l'oncle de Dave, a proposé à l'adolescent et à ses amis Cathy et Ted de passer quelques jours dans son haras (le Davis Park) à la campagne près de Londres. Les trois amis sont ravis de découvrir la vie dans un haras. Ils y font notamment la connaissance de Ronald (quinquagénaire, régisseur du domaine), d'Edward (garçon d'écurie, sexagénaire) et de James (quinquagénaire, palefrenier presque aveugle). La nuit suivant leur arrivée, Dave est réveillé par un bruit venant de l'écurie. C'est le palefrenier James qui fait sa ronde. Recherchant ses chaussures qu'il avait enlevées pour ne pas faire de bruit, Dave ne les retrouve pas : où sont-elles passées ? Par ailleurs, pourquoi le chien Onyx dort-il si profondément ? (chapitre 1). 
 Le lendemain, le trio assiste à une course. On apprend que M. Adelman, régisseur du domaine appartenant à M. Smith, vient de mourir d'une crise cardiaque dans les tribunes. Puis l'un des chevaux de l'oncle Anderson tombe subitement malade. Le trio se demande si la bête a été droguée pour truquer la course (chapitres 2 et 3). 
@@ -548,7 +562,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pur-sang</t>
         </is>
